--- a/GameServer/realmabilities_atlasOF/dbhelper/DB_RealmAbilities_Midgard.xlsx
+++ b/GameServer/realmabilities_atlasOF/dbhelper/DB_RealmAbilities_Midgard.xlsx
@@ -26,6 +26,9 @@
     <sheet name="SPIRITMASTER" sheetId="13" r:id="rId12"/>
     <sheet name="BONEDANCER" sheetId="12" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -374,9 +377,6 @@
     <t>Mercenary</t>
   </si>
   <si>
-    <t>AtlasOF_VoidStyle</t>
-  </si>
-  <si>
     <t>Reaver</t>
   </si>
   <si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>Bonedancer</t>
+  </si>
+  <si>
+    <t>AtlasOF_PurgeReduced</t>
   </si>
 </sst>
 </file>
@@ -638,986 +641,8 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1676,21 +701,83 @@
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="9"/>
+        <color theme="1"/>
         <name val="Consolas"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2123,6 +1210,922 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2141,6 +2144,45 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CONFIG"/>
+      <sheetName val="BARD"/>
+      <sheetName val="DRUID"/>
+      <sheetName val="WARDEN"/>
+      <sheetName val="BLADEMASTER"/>
+      <sheetName val="HERO"/>
+      <sheetName val="CHAMPION"/>
+      <sheetName val="ELDRITCH"/>
+      <sheetName val="ENCHANTER"/>
+      <sheetName val="MENTALIST"/>
+      <sheetName val="NIGHTSHADE"/>
+      <sheetName val="RANGER"/>
+      <sheetName val="ANIMIST"/>
+      <sheetName val="VALEWALKER"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblRealmAbilities" displayName="tblRealmAbilities" ref="B1:B101" totalsRowShown="0">
   <autoFilter ref="B1:B101"/>
@@ -2155,8 +2197,44 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="tblScout" displayName="tblScout" ref="B3:H34" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="tblHunter" displayName="tblHunter" ref="B3:H34" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="B3:H34"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="AbilityKey" dataDxfId="49"/>
+    <tableColumn id="2" name="#" dataDxfId="48"/>
+    <tableColumn id="3" name=" ." dataDxfId="47"/>
+    <tableColumn id="4" name="##" dataDxfId="46"/>
+    <tableColumn id="5" name=" .." dataDxfId="45"/>
+    <tableColumn id="6" name="###" dataDxfId="44"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="4">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="tblShadowblade" displayName="tblShadowblade" ref="B3:H32" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="B3:H32"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="AbilityKey" dataDxfId="41"/>
+    <tableColumn id="2" name="#" dataDxfId="40"/>
+    <tableColumn id="3" name=" ." dataDxfId="39"/>
+    <tableColumn id="4" name="##" dataDxfId="38"/>
+    <tableColumn id="5" name=" .." dataDxfId="37"/>
+    <tableColumn id="6" name="###" dataDxfId="36"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="3">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="tblRunemaster" displayName="tblRunemaster" ref="B3:H33" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
     <tableColumn id="1" name="AbilityKey" dataDxfId="33"/>
     <tableColumn id="2" name="#" dataDxfId="32"/>
@@ -2164,44 +2242,8 @@
     <tableColumn id="4" name="##" dataDxfId="30"/>
     <tableColumn id="5" name=" .." dataDxfId="29"/>
     <tableColumn id="6" name="###" dataDxfId="28"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="27">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="tblInfiltrator" displayName="tblInfiltrator" ref="B3:H32" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
-  <autoFilter ref="B3:H32"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="51"/>
-    <tableColumn id="2" name="#" dataDxfId="50"/>
-    <tableColumn id="3" name=" ." dataDxfId="49"/>
-    <tableColumn id="4" name="##" dataDxfId="48"/>
-    <tableColumn id="5" name=" .." dataDxfId="47"/>
-    <tableColumn id="6" name="###" dataDxfId="46"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="45">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="tblScout131415" displayName="tblScout131415" ref="B3:H33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B3:H33"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="6"/>
-    <tableColumn id="2" name="#" dataDxfId="5"/>
-    <tableColumn id="3" name=" ." dataDxfId="4"/>
-    <tableColumn id="4" name="##" dataDxfId="3"/>
-    <tableColumn id="5" name=" .." dataDxfId="2"/>
-    <tableColumn id="6" name="###" dataDxfId="1"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="0">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="2">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2209,17 +2251,17 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="tblScout1314" displayName="tblScout1314" ref="B3:H34" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="tblSpiritmaster" displayName="tblSpiritmaster" ref="B3:H34" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B3:H34"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="15"/>
-    <tableColumn id="2" name="#" dataDxfId="14"/>
-    <tableColumn id="3" name=" ." dataDxfId="13"/>
-    <tableColumn id="4" name="##" dataDxfId="12"/>
-    <tableColumn id="5" name=" .." dataDxfId="11"/>
-    <tableColumn id="6" name="###" dataDxfId="10"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="9">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="25"/>
+    <tableColumn id="2" name="#" dataDxfId="24"/>
+    <tableColumn id="3" name=" ." dataDxfId="23"/>
+    <tableColumn id="4" name="##" dataDxfId="22"/>
+    <tableColumn id="5" name=" .." dataDxfId="21"/>
+    <tableColumn id="6" name="###" dataDxfId="20"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="1">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2227,17 +2269,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="tblScout13" displayName="tblScout13" ref="B3:H32" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="tblBonedancer" displayName="tblBonedancer" ref="B3:H32" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B3:H32"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="24"/>
-    <tableColumn id="2" name="#" dataDxfId="23"/>
-    <tableColumn id="3" name=" ." dataDxfId="22"/>
-    <tableColumn id="4" name="##" dataDxfId="21"/>
-    <tableColumn id="5" name=" .." dataDxfId="20"/>
-    <tableColumn id="6" name="###" dataDxfId="19"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="18">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="17"/>
+    <tableColumn id="2" name="#" dataDxfId="16"/>
+    <tableColumn id="3" name=" ." dataDxfId="15"/>
+    <tableColumn id="4" name="##" dataDxfId="14"/>
+    <tableColumn id="5" name=" .." dataDxfId="13"/>
+    <tableColumn id="6" name="###" dataDxfId="12"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="0">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2260,17 +2302,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblPaladin" displayName="tblPaladin" ref="B3:H36" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblBerserker" displayName="tblBerserker" ref="B3:H36" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="B3:H36"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="107"/>
-    <tableColumn id="2" name="#" dataDxfId="106"/>
-    <tableColumn id="3" name=" ." dataDxfId="105"/>
-    <tableColumn id="4" name="##" dataDxfId="104"/>
-    <tableColumn id="5" name=" .." dataDxfId="103"/>
-    <tableColumn id="6" name="###" dataDxfId="102"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="77">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="105"/>
+    <tableColumn id="2" name="#" dataDxfId="104"/>
+    <tableColumn id="3" name=" ." dataDxfId="103"/>
+    <tableColumn id="4" name="##" dataDxfId="102"/>
+    <tableColumn id="5" name=" .." dataDxfId="101"/>
+    <tableColumn id="6" name="###" dataDxfId="100"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="11">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",[1]!tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,[1]!tblCleric[[#This Row],['#]],[1]!tblCleric[[#This Row],[ .]],[1]!tblCleric[[#This Row],['#'#]],[1]!tblCleric[[#This Row],[ ..]],[1]!tblCleric[[#This Row],['#'#'#]],"','",$D$2,[1]!tblCleric[[#This Row],['#]],[1]!tblCleric[[#This Row],[ .]],[1]!tblCleric[[#This Row],['#'#]],[1]!tblCleric[[#This Row],[ ..]],[1]!tblCleric[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2278,17 +2320,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblArmsman" displayName="tblArmsman" ref="B3:H35" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblWarrior" displayName="tblWarrior" ref="B3:H35" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="B3:H35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="99"/>
-    <tableColumn id="2" name="#" dataDxfId="98"/>
-    <tableColumn id="3" name=" ." dataDxfId="97"/>
-    <tableColumn id="4" name="##" dataDxfId="96"/>
-    <tableColumn id="5" name=" .." dataDxfId="95"/>
-    <tableColumn id="6" name="###" dataDxfId="94"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="74">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="97"/>
+    <tableColumn id="2" name="#" dataDxfId="96"/>
+    <tableColumn id="3" name=" ." dataDxfId="95"/>
+    <tableColumn id="4" name="##" dataDxfId="94"/>
+    <tableColumn id="5" name=" .." dataDxfId="93"/>
+    <tableColumn id="6" name="###" dataDxfId="92"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="10">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2296,17 +2338,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="tblMinstrel" displayName="tblMinstrel" ref="B3:H35" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="tblSkald" displayName="tblSkald" ref="B3:H35" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="B3:H35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="42"/>
-    <tableColumn id="2" name="#" dataDxfId="41"/>
-    <tableColumn id="3" name=" ." dataDxfId="40"/>
-    <tableColumn id="4" name="##" dataDxfId="39"/>
-    <tableColumn id="5" name=" .." dataDxfId="38"/>
-    <tableColumn id="6" name="###" dataDxfId="37"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="36">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="89"/>
+    <tableColumn id="2" name="#" dataDxfId="88"/>
+    <tableColumn id="3" name=" ." dataDxfId="87"/>
+    <tableColumn id="4" name="##" dataDxfId="86"/>
+    <tableColumn id="5" name=" .." dataDxfId="85"/>
+    <tableColumn id="6" name="###" dataDxfId="84"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="9">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2314,17 +2356,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblMercenary" displayName="tblMercenary" ref="B3:H34" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblThane" displayName="tblThane" ref="B3:H34" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="B3:H34"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="91"/>
-    <tableColumn id="2" name="#" dataDxfId="90"/>
-    <tableColumn id="3" name=" ." dataDxfId="89"/>
-    <tableColumn id="4" name="##" dataDxfId="88"/>
-    <tableColumn id="5" name=" .." dataDxfId="87"/>
-    <tableColumn id="6" name="###" dataDxfId="86"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="72">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="81"/>
+    <tableColumn id="2" name="#" dataDxfId="80"/>
+    <tableColumn id="3" name=" ." dataDxfId="79"/>
+    <tableColumn id="4" name="##" dataDxfId="78"/>
+    <tableColumn id="5" name=" .." dataDxfId="77"/>
+    <tableColumn id="6" name="###" dataDxfId="76"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="8">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2332,17 +2374,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="tblReaver" displayName="tblReaver" ref="B3:H35" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="tblSavage" displayName="tblSavage" ref="B3:H35" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="B3:H35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="83"/>
-    <tableColumn id="2" name="#" dataDxfId="82"/>
-    <tableColumn id="3" name=" ." dataDxfId="81"/>
-    <tableColumn id="4" name="##" dataDxfId="80"/>
-    <tableColumn id="5" name=" .." dataDxfId="79"/>
-    <tableColumn id="6" name="###" dataDxfId="78"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="73">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="73"/>
+    <tableColumn id="2" name="#" dataDxfId="72"/>
+    <tableColumn id="3" name=" ." dataDxfId="71"/>
+    <tableColumn id="4" name="##" dataDxfId="70"/>
+    <tableColumn id="5" name=" .." dataDxfId="69"/>
+    <tableColumn id="6" name="###" dataDxfId="68"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="7">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2350,17 +2392,17 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="tblCleric" displayName="tblCleric" ref="B3:H33" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="tblHealer" displayName="tblHealer" ref="B3:H33" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="B3:H33"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="69"/>
-    <tableColumn id="2" name="#" dataDxfId="68"/>
-    <tableColumn id="3" name=" ." dataDxfId="67"/>
-    <tableColumn id="4" name="##" dataDxfId="66"/>
-    <tableColumn id="5" name=" .." dataDxfId="65"/>
-    <tableColumn id="6" name="###" dataDxfId="64"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="63">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="65"/>
+    <tableColumn id="2" name="#" dataDxfId="64"/>
+    <tableColumn id="3" name=" ." dataDxfId="63"/>
+    <tableColumn id="4" name="##" dataDxfId="62"/>
+    <tableColumn id="5" name=" .." dataDxfId="61"/>
+    <tableColumn id="6" name="###" dataDxfId="60"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="6">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2368,17 +2410,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="tblFriar" displayName="tblFriar" ref="B3:H34" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="tblShaman" displayName="tblShaman" ref="B3:H34" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="B3:H34"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="AbilityKey" dataDxfId="60"/>
-    <tableColumn id="2" name="#" dataDxfId="59"/>
-    <tableColumn id="3" name=" ." dataDxfId="58"/>
-    <tableColumn id="4" name="##" dataDxfId="57"/>
-    <tableColumn id="5" name=" .." dataDxfId="56"/>
-    <tableColumn id="6" name="###" dataDxfId="55"/>
-    <tableColumn id="7" name="SQL QUERY" dataDxfId="54">
-      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
+    <tableColumn id="1" name="AbilityKey" dataDxfId="57"/>
+    <tableColumn id="2" name="#" dataDxfId="56"/>
+    <tableColumn id="3" name=" ." dataDxfId="55"/>
+    <tableColumn id="4" name="##" dataDxfId="54"/>
+    <tableColumn id="5" name=" .." dataDxfId="53"/>
+    <tableColumn id="6" name="###" dataDxfId="52"/>
+    <tableColumn id="7" name="SQL QUERY" dataDxfId="5">
+      <calculatedColumnFormula>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2655,7 +2697,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2686,7 +2728,7 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2700,7 +2742,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2714,13 +2756,13 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -2728,13 +2770,13 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -2742,13 +2784,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -2756,13 +2798,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -2770,13 +2812,13 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="12">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2784,13 +2826,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -2798,13 +2840,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -2812,13 +2854,13 @@
         <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -2826,7 +2868,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -2840,13 +2882,13 @@
         <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -2854,13 +2896,13 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -2868,13 +2910,13 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -2882,13 +2924,13 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16">
         <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -2896,13 +2938,13 @@
         <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17">
         <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -2910,13 +2952,13 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18">
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -2924,13 +2966,13 @@
         <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19">
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -2938,13 +2980,13 @@
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -2952,13 +2994,13 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21">
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -2966,13 +3008,13 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22">
         <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -2980,13 +3022,13 @@
         <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -2994,13 +3036,13 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24">
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -3008,13 +3050,13 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25">
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -3022,13 +3064,13 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -3036,13 +3078,13 @@
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -3050,13 +3092,13 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28">
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -3064,13 +3106,13 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29">
         <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -3078,13 +3120,13 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -3092,13 +3134,13 @@
         <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -3106,13 +3148,13 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -3120,13 +3162,13 @@
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -3134,13 +3176,13 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34">
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -3148,13 +3190,13 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35">
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -3162,13 +3204,13 @@
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36">
         <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -3176,13 +3218,13 @@
         <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37">
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -3190,13 +3232,13 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38">
         <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -3204,13 +3246,13 @@
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39">
         <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -3218,13 +3260,13 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -3319,172 +3361,172 @@
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
@@ -3545,9 +3587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H32"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,20 +3601,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="213" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3622,8 +3664,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_AugStr', 'Shadowblade1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_AugStr', 'Shadowblade1-0-1','Shadowblade1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -3648,8 +3690,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_MasteryOfArms', 'Shadowblade1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_MasteryOfArms', 'Shadowblade1-0-2','Shadowblade1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -3674,8 +3716,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_AugDex', 'Shadowblade1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_AugDex', 'Shadowblade1-0-3','Shadowblade1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -3700,8 +3742,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_MasteryOfPain', 'Shadowblade1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_MasteryOfPain', 'Shadowblade1-0-4','Shadowblade1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -3726,8 +3768,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_HailOfBlows', 'Shadowblade1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_HailOfBlows', 'Shadowblade1-0-5','Shadowblade1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -3752,8 +3794,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_DualistsReflexes', 'Shadowblade1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_DualistsReflexes', 'Shadowblade1-0-6','Shadowblade1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -3778,8 +3820,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_WhirlingDervish', 'Shadowblade1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_WhirlingDervish', 'Shadowblade1-0-7','Shadowblade1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -3804,8 +3846,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_Bladedance', 'Shadowblade1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_Bladedance', 'Shadowblade1-0-8','Shadowblade1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -3830,8 +3872,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_AugCon', 'Shadowblade1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_AugCon', 'Shadowblade1-0-9','Shadowblade1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -3856,8 +3898,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_SecondWind', 'Shadowblade1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_SecondWind', 'Shadowblade1-1-1','Shadowblade1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -3882,8 +3924,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_AugQui', 'Shadowblade1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_AugQui', 'Shadowblade1-1-2','Shadowblade1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -3908,8 +3950,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_Dodger', 'Shadowblade1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_Dodger', 'Shadowblade1-1-3','Shadowblade1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -3934,8 +3976,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_MasteryOfStealth', 'Shadowblade1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_MasteryOfStealth', 'Shadowblade1-1-4','Shadowblade1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -3960,8 +4002,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_LongWind', 'Shadowblade1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_LongWind', 'Shadowblade1-1-5','Shadowblade1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -3986,8 +4028,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_Tireless', 'Shadowblade1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_Tireless', 'Shadowblade1-1-6','Shadowblade1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4012,8 +4054,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_Regeneration', 'Shadowblade1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_Regeneration', 'Shadowblade1-1-7','Shadowblade1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4038,8 +4080,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_Toughness', 'Shadowblade1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_Toughness', 'Shadowblade1-1-8','Shadowblade1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4064,8 +4106,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_MasteryOfWater', 'Shadowblade1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_MasteryOfWater', 'Shadowblade1-1-9','Shadowblade1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4090,8 +4132,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_AvoidanceOfMagic', 'Shadowblade1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_AvoidanceOfMagic', 'Shadowblade1-2-1','Shadowblade1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4116,8 +4158,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_Lifter', 'Shadowblade1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_Lifter', 'Shadowblade1-2-2','Shadowblade1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4142,8 +4184,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_VeilRecovery', 'Shadowblade1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_VeilRecovery', 'Shadowblade1-2-3','Shadowblade1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4168,8 +4210,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_SeeHidden', 'Shadowblade1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_SeeHidden', 'Shadowblade1-2-4','Shadowblade1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4194,8 +4236,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_FirstAid', 'Shadowblade1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_FirstAid', 'Shadowblade1-2-5','Shadowblade1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -4220,8 +4262,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_RainOfFire', 'Shadowblade1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_RainOfFire', 'Shadowblade1-2-6','Shadowblade1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -4246,8 +4288,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_RainOfIce', 'Shadowblade1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_RainOfIce', 'Shadowblade1-2-7','Shadowblade1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -4272,8 +4314,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_RainOfAnnihilation', 'Shadowblade1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_RainOfAnnihilation', 'Shadowblade1-2-8','Shadowblade1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -4298,8 +4340,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_EmptyMind', 'Shadowblade1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_EmptyMind', 'Shadowblade1-2-9','Shadowblade1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -4324,8 +4366,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_Purge', 'Shadowblade1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_Purge', 'Shadowblade1-3-1','Shadowblade1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -4350,8 +4392,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblInfiltrator[[#This Row],[AbilityKey]],"', '",$D$2,tblInfiltrator[[#This Row],['#]],tblInfiltrator[[#This Row],[ .]],tblInfiltrator[[#This Row],['#'#]],tblInfiltrator[[#This Row],[ ..]],tblInfiltrator[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('23', 'AtlasOF_ShadowRun', 'Shadowblade1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShadowblade[[#This Row],[AbilityKey]],"', '",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"','",$D$2,tblShadowblade[[#This Row],['#]],tblShadowblade[[#This Row],[ .]],tblShadowblade[[#This Row],['#'#]],tblShadowblade[[#This Row],[ ..]],tblShadowblade[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('23', 'AtlasOF_ShadowRun', 'Shadowblade1-3-2','Shadowblade1-3-2');</v>
       </c>
     </row>
   </sheetData>
@@ -4379,9 +4421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,20 +4435,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="215" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -4456,8 +4498,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_AugStr', 'Runemaster1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_AugStr', 'Runemaster1-0-1','Runemaster1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -4482,8 +4524,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_AugDex', 'Runemaster1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_AugDex', 'Runemaster1-0-2','Runemaster1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -4508,8 +4550,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_AugCon', 'Runemaster1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_AugCon', 'Runemaster1-0-3','Runemaster1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -4534,8 +4576,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_SecondWind', 'Runemaster1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_SecondWind', 'Runemaster1-0-4','Runemaster1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -4560,8 +4602,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_AugQui', 'Runemaster1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_AugQui', 'Runemaster1-0-5','Runemaster1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -4586,8 +4628,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_AugAcuity', 'Runemaster1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_AugAcuity', 'Runemaster1-0-6','Runemaster1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -4612,8 +4654,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_Serenity', 'Runemaster1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_Serenity', 'Runemaster1-0-7','Runemaster1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -4638,8 +4680,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_EtherealBond', 'Runemaster1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_EtherealBond', 'Runemaster1-0-8','Runemaster1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -4664,8 +4706,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_WildArcana', 'Runemaster1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_WildArcana', 'Runemaster1-0-9','Runemaster1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -4690,8 +4732,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_WildPower', 'Runemaster1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_WildPower', 'Runemaster1-1-1','Runemaster1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -4716,8 +4758,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_MasteryOfTheArt', 'Runemaster1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_MasteryOfTheArt', 'Runemaster1-1-2','Runemaster1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -4742,8 +4784,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_MasteryOfMagery', 'Runemaster1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_MasteryOfMagery', 'Runemaster1-1-3','Runemaster1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -4768,8 +4810,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_MasteryOfTheArcane', 'Runemaster1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_MasteryOfTheArcane', 'Runemaster1-1-4','Runemaster1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4794,8 +4836,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_Concentration', 'Runemaster1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_Concentration', 'Runemaster1-1-5','Runemaster1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -4820,8 +4862,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_MasteryOfConcentration', 'Runemaster1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_MasteryOfConcentration', 'Runemaster1-1-6','Runemaster1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4846,8 +4888,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_MajesticWill', 'Runemaster1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_MajesticWill', 'Runemaster1-1-7','Runemaster1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4872,8 +4914,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_LongWind', 'Runemaster1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_LongWind', 'Runemaster1-1-8','Runemaster1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -4898,8 +4940,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_Tireless', 'Runemaster1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_Tireless', 'Runemaster1-1-9','Runemaster1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4924,8 +4966,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_Regeneration', 'Runemaster1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_Regeneration', 'Runemaster1-2-1','Runemaster1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4950,8 +4992,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_Toughness', 'Runemaster1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_Toughness', 'Runemaster1-2-2','Runemaster1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4976,8 +5018,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_MasteryOfWater', 'Runemaster1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_MasteryOfWater', 'Runemaster1-2-3','Runemaster1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -5002,8 +5044,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_AvoidanceOfMagic', 'Runemaster1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_AvoidanceOfMagic', 'Runemaster1-2-4','Runemaster1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -5028,8 +5070,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_Lifter', 'Runemaster1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_Lifter', 'Runemaster1-2-5','Runemaster1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -5054,8 +5096,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_VeilRecovery', 'Runemaster1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_VeilRecovery', 'Runemaster1-2-6','Runemaster1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -5080,8 +5122,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_FirstAid', 'Runemaster1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_FirstAid', 'Runemaster1-2-7','Runemaster1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -5106,8 +5148,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_EmptyMind', 'Runemaster1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_EmptyMind', 'Runemaster1-2-8','Runemaster1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -5132,8 +5174,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_MCL', 'Runemaster1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_MCL', 'Runemaster1-2-9','Runemaster1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -5158,8 +5200,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_RagingPower', 'Runemaster1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_RagingPower', 'Runemaster1-3-1','Runemaster1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -5184,8 +5226,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_Purge', 'Runemaster1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_Purge', 'Runemaster1-3-2','Runemaster1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -5210,8 +5252,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout131415[[#This Row],[AbilityKey]],"', '",$D$2,tblScout131415[[#This Row],['#]],tblScout131415[[#This Row],[ .]],tblScout131415[[#This Row],['#'#]],tblScout131415[[#This Row],[ ..]],tblScout131415[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('29', 'AtlasOF_RuneOfDecimation', 'Runemaster1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblRunemaster[[#This Row],[AbilityKey]],"', '",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"','",$D$2,tblRunemaster[[#This Row],['#]],tblRunemaster[[#This Row],[ .]],tblRunemaster[[#This Row],['#'#]],tblRunemaster[[#This Row],[ ..]],tblRunemaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('29', 'AtlasOF_RuneOfDecimation', 'Runemaster1-3-3','Runemaster1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -5239,9 +5281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H34"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5253,20 +5295,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="219.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -5316,8 +5358,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_AugStr', 'Spiritmaster1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_AugStr', 'Spiritmaster1-0-1','Spiritmaster1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -5342,8 +5384,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_AugDex', 'Spiritmaster1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_AugDex', 'Spiritmaster1-0-2','Spiritmaster1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -5368,8 +5410,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_AugCon', 'Spiritmaster1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_AugCon', 'Spiritmaster1-0-3','Spiritmaster1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -5394,8 +5436,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_SecondWind', 'Spiritmaster1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_SecondWind', 'Spiritmaster1-0-4','Spiritmaster1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -5420,8 +5462,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_AugQui', 'Spiritmaster1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_AugQui', 'Spiritmaster1-0-5','Spiritmaster1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -5446,8 +5488,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_AugAcuity', 'Spiritmaster1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_AugAcuity', 'Spiritmaster1-0-6','Spiritmaster1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -5472,8 +5514,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_Serenity', 'Spiritmaster1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_Serenity', 'Spiritmaster1-0-7','Spiritmaster1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -5498,8 +5540,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_EtherealBond', 'Spiritmaster1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_EtherealBond', 'Spiritmaster1-0-8','Spiritmaster1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -5524,8 +5566,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_WildArcana', 'Spiritmaster1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_WildArcana', 'Spiritmaster1-0-9','Spiritmaster1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -5550,8 +5592,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_WildMinion', 'Spiritmaster1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_WildMinion', 'Spiritmaster1-1-1','Spiritmaster1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -5576,8 +5618,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_WildPower', 'Spiritmaster1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_WildPower', 'Spiritmaster1-1-2','Spiritmaster1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -5602,8 +5644,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_MasteryOfTheArt', 'Spiritmaster1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_MasteryOfTheArt', 'Spiritmaster1-1-3','Spiritmaster1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -5628,8 +5670,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_MasteryOfMagery', 'Spiritmaster1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_MasteryOfMagery', 'Spiritmaster1-1-4','Spiritmaster1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -5654,8 +5696,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_MasteryOfTheArcane', 'Spiritmaster1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_MasteryOfTheArcane', 'Spiritmaster1-1-5','Spiritmaster1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -5680,8 +5722,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_Concentration', 'Spiritmaster1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_Concentration', 'Spiritmaster1-1-6','Spiritmaster1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -5706,8 +5748,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_MasteryOfConcentration', 'Spiritmaster1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_MasteryOfConcentration', 'Spiritmaster1-1-7','Spiritmaster1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -5732,8 +5774,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_MajesticWill', 'Spiritmaster1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_MajesticWill', 'Spiritmaster1-1-8','Spiritmaster1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -5758,8 +5800,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_LongWind', 'Spiritmaster1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_LongWind', 'Spiritmaster1-1-9','Spiritmaster1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -5784,8 +5826,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_Tireless', 'Spiritmaster1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_Tireless', 'Spiritmaster1-2-1','Spiritmaster1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -5810,8 +5852,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_Regeneration', 'Spiritmaster1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_Regeneration', 'Spiritmaster1-2-2','Spiritmaster1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -5836,8 +5878,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_Toughness', 'Spiritmaster1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_Toughness', 'Spiritmaster1-2-3','Spiritmaster1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -5862,8 +5904,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_MasteryOfWater', 'Spiritmaster1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_MasteryOfWater', 'Spiritmaster1-2-4','Spiritmaster1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -5888,8 +5930,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_AvoidanceOfMagic', 'Spiritmaster1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_AvoidanceOfMagic', 'Spiritmaster1-2-5','Spiritmaster1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -5914,8 +5956,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_Lifter', 'Spiritmaster1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_Lifter', 'Spiritmaster1-2-6','Spiritmaster1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -5940,8 +5982,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_VeilRecovery', 'Spiritmaster1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_VeilRecovery', 'Spiritmaster1-2-7','Spiritmaster1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -5966,8 +6008,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_EmptyMind', 'Spiritmaster1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_EmptyMind', 'Spiritmaster1-2-8','Spiritmaster1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -5992,8 +6034,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_MCL', 'Spiritmaster1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_MCL', 'Spiritmaster1-2-9','Spiritmaster1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -6018,8 +6060,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_RagingPower', 'Spiritmaster1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_RagingPower', 'Spiritmaster1-3-1','Spiritmaster1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -6044,8 +6086,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_Purge', 'Spiritmaster1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_Purge', 'Spiritmaster1-3-2','Spiritmaster1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -6070,8 +6112,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_WhipOfEncouragement', 'Spiritmaster1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_WhipOfEncouragement', 'Spiritmaster1-3-3','Spiritmaster1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -6096,8 +6138,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout1314[[#This Row],[AbilityKey]],"', '",$D$2,tblScout1314[[#This Row],['#]],tblScout1314[[#This Row],[ .]],tblScout1314[[#This Row],['#'#]],tblScout1314[[#This Row],[ ..]],tblScout1314[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('27', 'AtlasOF_ExcitedFrenzy', 'Spiritmaster1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSpiritmaster[[#This Row],[AbilityKey]],"', '",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"','",$D$2,tblSpiritmaster[[#This Row],['#]],tblSpiritmaster[[#This Row],[ .]],tblSpiritmaster[[#This Row],['#'#]],tblSpiritmaster[[#This Row],[ ..]],tblSpiritmaster[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('27', 'AtlasOF_ExcitedFrenzy', 'Spiritmaster1-3-4','Spiritmaster1-3-4');</v>
       </c>
     </row>
   </sheetData>
@@ -6125,9 +6167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H32"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6139,20 +6181,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="223.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -6202,8 +6244,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_AugStr', 'Bonedancer1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_AugStr', 'Bonedancer1-0-1','Bonedancer1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -6228,8 +6270,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_AugDex', 'Bonedancer1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_AugDex', 'Bonedancer1-0-2','Bonedancer1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -6254,8 +6296,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_AugCon', 'Bonedancer1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_AugCon', 'Bonedancer1-0-3','Bonedancer1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -6280,8 +6322,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_SecondWind', 'Bonedancer1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_SecondWind', 'Bonedancer1-0-4','Bonedancer1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -6306,8 +6348,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_AugQui', 'Bonedancer1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_AugQui', 'Bonedancer1-0-5','Bonedancer1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -6332,8 +6374,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_AugAcuity', 'Bonedancer1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_AugAcuity', 'Bonedancer1-0-6','Bonedancer1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -6358,8 +6400,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_Serenity', 'Bonedancer1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_Serenity', 'Bonedancer1-0-7','Bonedancer1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -6384,8 +6426,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_EtherealBond', 'Bonedancer1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_EtherealBond', 'Bonedancer1-0-8','Bonedancer1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -6410,8 +6452,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_WildArcana', 'Bonedancer1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_WildArcana', 'Bonedancer1-0-9','Bonedancer1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -6436,8 +6478,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_WildPower', 'Bonedancer1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_WildPower', 'Bonedancer1-1-1','Bonedancer1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -6462,8 +6504,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_MasteryOfTheArt', 'Bonedancer1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_MasteryOfTheArt', 'Bonedancer1-1-2','Bonedancer1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -6488,8 +6530,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_MasteryOfMagery', 'Bonedancer1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_MasteryOfMagery', 'Bonedancer1-1-3','Bonedancer1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -6514,8 +6556,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_MasteryOfTheArcane', 'Bonedancer1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_MasteryOfTheArcane', 'Bonedancer1-1-4','Bonedancer1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -6540,8 +6582,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_Concentration', 'Bonedancer1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_Concentration', 'Bonedancer1-1-5','Bonedancer1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -6566,8 +6608,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_MasteryOfConcentration', 'Bonedancer1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_MasteryOfConcentration', 'Bonedancer1-1-6','Bonedancer1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -6592,8 +6634,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_MajesticWill', 'Bonedancer1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_MajesticWill', 'Bonedancer1-1-7','Bonedancer1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -6618,8 +6660,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_LongWind', 'Bonedancer1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_LongWind', 'Bonedancer1-1-8','Bonedancer1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -6644,8 +6686,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_Tireless', 'Bonedancer1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_Tireless', 'Bonedancer1-1-9','Bonedancer1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -6670,8 +6712,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_Regeneration', 'Bonedancer1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_Regeneration', 'Bonedancer1-2-1','Bonedancer1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -6696,8 +6738,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_Toughness', 'Bonedancer1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_Toughness', 'Bonedancer1-2-2','Bonedancer1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -6722,8 +6764,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_MasteryOfWater', 'Bonedancer1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_MasteryOfWater', 'Bonedancer1-2-3','Bonedancer1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -6748,8 +6790,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_AvoidanceOfMagic', 'Bonedancer1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_AvoidanceOfMagic', 'Bonedancer1-2-4','Bonedancer1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -6774,8 +6816,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_Lifter', 'Bonedancer1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_Lifter', 'Bonedancer1-2-5','Bonedancer1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -6800,8 +6842,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_VeilRecovery', 'Bonedancer1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_VeilRecovery', 'Bonedancer1-2-6','Bonedancer1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -6826,8 +6868,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_EmptyMind', 'Bonedancer1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_EmptyMind', 'Bonedancer1-2-7','Bonedancer1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -6852,8 +6894,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_MCL', 'Bonedancer1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_MCL', 'Bonedancer1-2-8','Bonedancer1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -6878,8 +6920,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_RagingPower', 'Bonedancer1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_RagingPower', 'Bonedancer1-2-9','Bonedancer1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -6904,8 +6946,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_Purge', 'Bonedancer1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_Purge', 'Bonedancer1-3-1','Bonedancer1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -6930,8 +6972,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout13[[#This Row],[AbilityKey]],"', '",$D$2,tblScout13[[#This Row],['#]],tblScout13[[#This Row],[ .]],tblScout13[[#This Row],['#'#]],tblScout13[[#This Row],[ ..]],tblScout13[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('30', 'AtlasOF_ResilienceOfDeath', 'Bonedancer1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBonedancer[[#This Row],[AbilityKey]],"', '",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"','",$D$2,tblBonedancer[[#This Row],['#]],tblBonedancer[[#This Row],[ .]],tblBonedancer[[#This Row],['#'#]],tblBonedancer[[#This Row],[ ..]],tblBonedancer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('30', 'AtlasOF_ResilienceOfDeath', 'Bonedancer1-3-2','Bonedancer1-3-2');</v>
       </c>
     </row>
   </sheetData>
@@ -6959,9 +7001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6973,20 +7015,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="217.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -7036,8 +7078,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_AugStr', 'Berserker1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_AugStr', 'Berserker1-0-1','Berserker1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -7062,8 +7104,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_MasteryOfArms', 'Berserker1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_MasteryOfArms', 'Berserker1-0-2','Berserker1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -7088,8 +7130,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_AugDex', 'Berserker1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_AugDex', 'Berserker1-0-3','Berserker1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -7114,8 +7156,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_MasteryOfPain', 'Berserker1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_MasteryOfPain', 'Berserker1-0-4','Berserker1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -7140,8 +7182,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_MasteryOfParrying', 'Berserker1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_MasteryOfParrying', 'Berserker1-0-5','Berserker1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -7166,8 +7208,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_DualistsReflexes', 'Berserker1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_DualistsReflexes', 'Berserker1-0-6','Berserker1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -7192,8 +7234,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_WhirlingDervish', 'Berserker1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_WhirlingDervish', 'Berserker1-0-7','Berserker1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -7218,8 +7260,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_Bladedance', 'Berserker1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_Bladedance', 'Berserker1-0-8','Berserker1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -7244,8 +7286,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_AugCon', 'Berserker1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_AugCon', 'Berserker1-0-9','Berserker1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -7270,8 +7312,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_AvoidPain', 'Berserker1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_AvoidPain', 'Berserker1-1-1','Berserker1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -7296,8 +7338,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_SecondWind', 'Berserker1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_SecondWind', 'Berserker1-1-2','Berserker1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -7322,8 +7364,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_AugQui', 'Berserker1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_AugQui', 'Berserker1-1-3','Berserker1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -7348,8 +7390,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_Dodger', 'Berserker1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_Dodger', 'Berserker1-1-4','Berserker1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -7374,8 +7416,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_LongWind', 'Berserker1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_LongWind', 'Berserker1-1-5','Berserker1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -7400,8 +7442,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_Tireless', 'Berserker1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_Tireless', 'Berserker1-1-6','Berserker1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -7426,8 +7468,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_Regeneration', 'Berserker1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_Regeneration', 'Berserker1-1-7','Berserker1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -7452,8 +7494,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_Toughness', 'Berserker1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_Toughness', 'Berserker1-1-8','Berserker1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -7478,8 +7520,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_MasteryOfWater', 'Berserker1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_MasteryOfWater', 'Berserker1-1-9','Berserker1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -7504,8 +7546,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_AvoidanceOfMagic', 'Berserker1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_AvoidanceOfMagic', 'Berserker1-2-1','Berserker1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -7530,8 +7572,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_Lifter', 'Berserker1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_Lifter', 'Berserker1-2-2','Berserker1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -7556,8 +7598,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_VeilRecovery', 'Berserker1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_VeilRecovery', 'Berserker1-2-3','Berserker1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -7582,8 +7624,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_Determination', 'Berserker1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_Determination', 'Berserker1-2-4','Berserker1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -7608,8 +7650,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_Trip', 'Berserker1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_Trip', 'Berserker1-2-5','Berserker1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -7634,8 +7676,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_Grapple', 'Berserker1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_Grapple', 'Berserker1-2-6','Berserker1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -7660,8 +7702,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_FirstAid', 'Berserker1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_FirstAid', 'Berserker1-2-7','Berserker1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -7686,8 +7728,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_IgnorePain', 'Berserker1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_IgnorePain', 'Berserker1-2-8','Berserker1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -7712,8 +7754,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_RainOfFire', 'Berserker1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_RainOfFire', 'Berserker1-2-9','Berserker1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -7738,8 +7780,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_RainOfIce', 'Berserker1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_RainOfIce', 'Berserker1-3-1','Berserker1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -7764,8 +7806,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_RainOfAnnihilation', 'Berserker1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_RainOfAnnihilation', 'Berserker1-3-2','Berserker1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -7790,8 +7832,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_EmptyMind', 'Berserker1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_EmptyMind', 'Berserker1-3-3','Berserker1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -7816,8 +7858,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_Purge', 'Berserker1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_Purge', 'Berserker1-3-4','Berserker1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -7842,8 +7884,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_StyleTundra', 'Berserker1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_StyleTundra', 'Berserker1-3-5','Berserker1-3-5');</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -7868,8 +7910,8 @@
         <v>6</v>
       </c>
       <c r="H36" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblPaladin[[#This Row],[AbilityKey]],"', '",$D$2,tblPaladin[[#This Row],['#]],tblPaladin[[#This Row],[ .]],tblPaladin[[#This Row],['#'#]],tblPaladin[[#This Row],[ ..]],tblPaladin[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('31', 'AtlasOF_PreventFlight', 'Berserker1-3-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblBerserker[[#This Row],[AbilityKey]],"', '",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"','",$D$2,tblBerserker[[#This Row],['#]],tblBerserker[[#This Row],[ .]],tblBerserker[[#This Row],['#'#]],tblBerserker[[#This Row],[ ..]],tblBerserker[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('31', 'AtlasOF_PreventFlight', 'Berserker1-3-6','Berserker1-3-6');</v>
       </c>
     </row>
   </sheetData>
@@ -7880,7 +7922,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>CONFIG!$B$2:$B$101</xm:f>
@@ -7897,9 +7939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H35"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7911,20 +7953,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="213" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -7974,8 +8016,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_AugStr', 'Warrior1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_AugStr', 'Warrior1-0-1','Warrior1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -8000,8 +8042,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_MasteryOfArms', 'Warrior1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_MasteryOfArms', 'Warrior1-0-2','Warrior1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -8026,8 +8068,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_AugDex', 'Warrior1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_AugDex', 'Warrior1-0-3','Warrior1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -8052,8 +8094,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_MasteryOfPain', 'Warrior1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_MasteryOfPain', 'Warrior1-0-4','Warrior1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -8078,8 +8120,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_MasteryOfBlocking', 'Warrior1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_MasteryOfBlocking', 'Warrior1-0-5','Warrior1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -8104,8 +8146,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_MasteryOfParrying', 'Warrior1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_MasteryOfParrying', 'Warrior1-0-6','Warrior1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -8130,8 +8172,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_HailOfBlows', 'Warrior1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_HailOfBlows', 'Warrior1-0-7','Warrior1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -8156,8 +8198,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_AugCon', 'Warrior1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_AugCon', 'Warrior1-0-8','Warrior1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -8182,8 +8224,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_AvoidPain', 'Warrior1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_AvoidPain', 'Warrior1-0-9','Warrior1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -8208,8 +8250,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_SecondWind', 'Warrior1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_SecondWind', 'Warrior1-1-1','Warrior1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -8234,8 +8276,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_BattleYell', 'Warrior1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_BattleYell', 'Warrior1-1-2','Warrior1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -8260,8 +8302,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_AugQui', 'Warrior1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_AugQui', 'Warrior1-1-3','Warrior1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -8286,8 +8328,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_LongWind', 'Warrior1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_LongWind', 'Warrior1-1-4','Warrior1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -8312,8 +8354,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_Tireless', 'Warrior1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_Tireless', 'Warrior1-1-5','Warrior1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -8338,8 +8380,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_Regeneration', 'Warrior1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_Regeneration', 'Warrior1-1-6','Warrior1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -8364,8 +8406,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_Toughness', 'Warrior1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_Toughness', 'Warrior1-1-7','Warrior1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -8390,8 +8432,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_MasteryOfWater', 'Warrior1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_MasteryOfWater', 'Warrior1-1-8','Warrior1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -8416,8 +8458,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_AvoidanceOfMagic', 'Warrior1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_AvoidanceOfMagic', 'Warrior1-1-9','Warrior1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -8442,8 +8484,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_Lifter', 'Warrior1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_Lifter', 'Warrior1-2-1','Warrior1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -8468,8 +8510,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_VeilRecovery', 'Warrior1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_VeilRecovery', 'Warrior1-2-2','Warrior1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -8494,8 +8536,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_Determination', 'Warrior1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_Determination', 'Warrior1-2-3','Warrior1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -8520,8 +8562,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_Trip', 'Warrior1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_Trip', 'Warrior1-2-4','Warrior1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -8546,8 +8588,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_Grapple', 'Warrior1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_Grapple', 'Warrior1-2-5','Warrior1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -8572,8 +8614,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_FirstAid', 'Warrior1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_FirstAid', 'Warrior1-2-6','Warrior1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -8598,8 +8640,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_IgnorePain', 'Warrior1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_IgnorePain', 'Warrior1-2-7','Warrior1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -8624,8 +8666,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_RainOfFire', 'Warrior1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_RainOfFire', 'Warrior1-2-8','Warrior1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -8650,8 +8692,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_RainOfIce', 'Warrior1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_RainOfIce', 'Warrior1-2-9','Warrior1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -8676,8 +8718,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_RainOfAnnihilation', 'Warrior1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_RainOfAnnihilation', 'Warrior1-3-1','Warrior1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -8702,8 +8744,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_EmptyMind', 'Warrior1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_EmptyMind', 'Warrior1-3-2','Warrior1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -8728,8 +8770,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_Purge', 'Warrior1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_Purge', 'Warrior1-3-3','Warrior1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -8754,8 +8796,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_StyleDoombringer', 'Warrior1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_StyleDoombringer', 'Warrior1-3-4','Warrior1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -8780,8 +8822,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblArmsman[[#This Row],[AbilityKey]],"', '",$D$2,tblArmsman[[#This Row],['#]],tblArmsman[[#This Row],[ .]],tblArmsman[[#This Row],['#'#]],tblArmsman[[#This Row],[ ..]],tblArmsman[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('22', 'AtlasOF_PreventFlight', 'Warrior1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblWarrior[[#This Row],[AbilityKey]],"', '",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"','",$D$2,tblWarrior[[#This Row],['#]],tblWarrior[[#This Row],[ .]],tblWarrior[[#This Row],['#'#]],tblWarrior[[#This Row],[ ..]],tblWarrior[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('22', 'AtlasOF_PreventFlight', 'Warrior1-3-5','Warrior1-3-5');</v>
       </c>
     </row>
   </sheetData>
@@ -8809,9 +8851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H35"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8823,20 +8865,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="208.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -8886,8 +8928,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_AugStr', 'Skald1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_AugStr', 'Skald1-0-1','Skald1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -8912,8 +8954,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_MasteryOfArms', 'Skald1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_MasteryOfArms', 'Skald1-0-2','Skald1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -8938,8 +8980,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_AugDex', 'Skald1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_AugDex', 'Skald1-0-3','Skald1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -8964,8 +9006,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_MasteryOfPain', 'Skald1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_MasteryOfPain', 'Skald1-0-4','Skald1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -8990,8 +9032,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_MasteryOfBlocking', 'Skald1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_MasteryOfBlocking', 'Skald1-0-5','Skald1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -9016,8 +9058,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_MasteryOfParrying', 'Skald1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_MasteryOfParrying', 'Skald1-0-6','Skald1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -9042,8 +9084,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_AugCon', 'Skald1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_AugCon', 'Skald1-0-7','Skald1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -9068,8 +9110,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_AvoidPain', 'Skald1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_AvoidPain', 'Skald1-0-8','Skald1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -9094,8 +9136,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_SecondWind', 'Skald1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_SecondWind', 'Skald1-0-9','Skald1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -9120,8 +9162,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_ArmorOfFaith', 'Skald1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_ArmorOfFaith', 'Skald1-1-1','Skald1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -9146,8 +9188,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_AugQui', 'Skald1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_AugQui', 'Skald1-1-2','Skald1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -9172,8 +9214,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_AugAcuity', 'Skald1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_AugAcuity', 'Skald1-1-3','Skald1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -9198,8 +9240,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_Serenity', 'Skald1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_Serenity', 'Skald1-1-4','Skald1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -9224,8 +9266,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_MasteryOfTheArcane', 'Skald1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_MasteryOfTheArcane', 'Skald1-1-5','Skald1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -9250,8 +9292,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_LongWind', 'Skald1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_LongWind', 'Skald1-1-6','Skald1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -9276,8 +9318,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_Tireless', 'Skald1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_Tireless', 'Skald1-1-7','Skald1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -9302,8 +9344,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_Regeneration', 'Skald1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_Regeneration', 'Skald1-1-8','Skald1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -9328,8 +9370,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_Toughness', 'Skald1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_Toughness', 'Skald1-1-9','Skald1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -9354,8 +9396,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_MasteryOfWater', 'Skald1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_MasteryOfWater', 'Skald1-2-1','Skald1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -9380,8 +9422,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_AvoidanceOfMagic', 'Skald1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_AvoidanceOfMagic', 'Skald1-2-2','Skald1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -9406,8 +9448,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_Lifter', 'Skald1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_Lifter', 'Skald1-2-3','Skald1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -9432,8 +9474,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_VeilRecovery', 'Skald1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_VeilRecovery', 'Skald1-2-4','Skald1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -9458,8 +9500,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_FirstAid', 'Skald1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_FirstAid', 'Skald1-2-5','Skald1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -9484,8 +9526,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_IgnorePain', 'Skald1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_IgnorePain', 'Skald1-2-6','Skald1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -9510,8 +9552,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_RainOfFire', 'Skald1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_RainOfFire', 'Skald1-2-7','Skald1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -9536,8 +9578,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_RainOfIce', 'Skald1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_RainOfIce', 'Skald1-2-8','Skald1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -9562,8 +9604,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_RainOfAnnihilation', 'Skald1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_RainOfAnnihilation', 'Skald1-2-9','Skald1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -9588,8 +9630,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_EmptyMind', 'Skald1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_EmptyMind', 'Skald1-3-1','Skald1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -9614,8 +9656,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_MCL', 'Skald1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_MCL', 'Skald1-3-2','Skald1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -9640,8 +9682,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_RagingPower', 'Skald1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_RagingPower', 'Skald1-3-3','Skald1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -9666,8 +9708,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_Purge', 'Skald1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_Purge', 'Skald1-3-4','Skald1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -9692,8 +9734,8 @@
         <v>5</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMinstrel[[#This Row],[AbilityKey]],"', '",$D$2,tblMinstrel[[#This Row],['#]],tblMinstrel[[#This Row],[ .]],tblMinstrel[[#This Row],['#'#]],tblMinstrel[[#This Row],[ ..]],tblMinstrel[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('24', 'AtlasOF_FuryOfTheGods', 'Skald1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSkald[[#This Row],[AbilityKey]],"', '",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"','",$D$2,tblSkald[[#This Row],['#]],tblSkald[[#This Row],[ .]],tblSkald[[#This Row],['#'#]],tblSkald[[#This Row],[ ..]],tblSkald[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('24', 'AtlasOF_FuryOfTheGods', 'Skald1-3-5','Skald1-3-5');</v>
       </c>
     </row>
   </sheetData>
@@ -9721,9 +9763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H34"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9735,20 +9777,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="200.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -9798,8 +9840,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_AugStr', 'Thane1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_AugStr', 'Thane1-0-1','Thane1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -9824,8 +9866,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_MasteryOfArms', 'Thane1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_MasteryOfArms', 'Thane1-0-2','Thane1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -9850,8 +9892,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_AugDex', 'Thane1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_AugDex', 'Thane1-0-3','Thane1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -9876,8 +9918,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_MasteryOfPain', 'Thane1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_MasteryOfPain', 'Thane1-0-4','Thane1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -9902,8 +9944,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_MasteryOfBlocking', 'Thane1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_MasteryOfBlocking', 'Thane1-0-5','Thane1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -9928,8 +9970,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_MasteryOfParrying', 'Thane1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_MasteryOfParrying', 'Thane1-0-6','Thane1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -9954,8 +9996,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_HailOfBlows', 'Thane1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_HailOfBlows', 'Thane1-0-7','Thane1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -9980,8 +10022,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_AugCon', 'Thane1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_AugCon', 'Thane1-0-8','Thane1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -10006,8 +10048,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_SecondWind', 'Thane1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_SecondWind', 'Thane1-0-9','Thane1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -10032,8 +10074,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_ArmorOfFaith', 'Thane1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_ArmorOfFaith', 'Thane1-1-1','Thane1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -10058,8 +10100,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_AugQui', 'Thane1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_AugQui', 'Thane1-1-2','Thane1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -10084,8 +10126,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_AugAcuity', 'Thane1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_AugAcuity', 'Thane1-1-3','Thane1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -10110,8 +10152,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_Serenity', 'Thane1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_Serenity', 'Thane1-1-4','Thane1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10136,8 +10178,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_EtherealBond', 'Thane1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_EtherealBond', 'Thane1-1-5','Thane1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10162,8 +10204,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_LongWind', 'Thane1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_LongWind', 'Thane1-1-6','Thane1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10188,8 +10230,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_Tireless', 'Thane1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_Tireless', 'Thane1-1-7','Thane1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -10214,8 +10256,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_Regeneration', 'Thane1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_Regeneration', 'Thane1-1-8','Thane1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -10240,8 +10282,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_Toughness', 'Thane1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_Toughness', 'Thane1-1-9','Thane1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -10266,8 +10308,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_MasteryOfWater', 'Thane1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_MasteryOfWater', 'Thane1-2-1','Thane1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -10292,8 +10334,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_AvoidanceOfMagic', 'Thane1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_AvoidanceOfMagic', 'Thane1-2-2','Thane1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -10318,8 +10360,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_Lifter', 'Thane1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_Lifter', 'Thane1-2-3','Thane1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -10344,8 +10386,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_VeilRecovery', 'Thane1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_VeilRecovery', 'Thane1-2-4','Thane1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -10370,8 +10412,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_FirstAid', 'Thane1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_FirstAid', 'Thane1-2-5','Thane1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -10396,8 +10438,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_IgnorePain', 'Thane1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_IgnorePain', 'Thane1-2-6','Thane1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -10422,8 +10464,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_RainOfFire', 'Thane1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_RainOfFire', 'Thane1-2-7','Thane1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -10448,8 +10490,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_RainOfIce', 'Thane1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_RainOfIce', 'Thane1-2-8','Thane1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -10474,8 +10516,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_RainOfAnnihilation', 'Thane1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_RainOfAnnihilation', 'Thane1-2-9','Thane1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -10500,8 +10542,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_EmptyMind', 'Thane1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_EmptyMind', 'Thane1-3-1','Thane1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -10526,8 +10568,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_MCL', 'Thane1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_MCL', 'Thane1-3-2','Thane1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -10552,8 +10594,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_Purge', 'Thane1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_Purge', 'Thane1-3-3','Thane1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -10578,8 +10620,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblMercenary[[#This Row],[AbilityKey]],"', '",$D$2,tblMercenary[[#This Row],['#]],tblMercenary[[#This Row],[ .]],tblMercenary[[#This Row],['#'#]],tblMercenary[[#This Row],[ ..]],tblMercenary[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('21', 'AtlasOF_StaticTempest', 'Thane1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblThane[[#This Row],[AbilityKey]],"', '",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"','",$D$2,tblThane[[#This Row],['#]],tblThane[[#This Row],[ .]],tblThane[[#This Row],['#'#]],tblThane[[#This Row],[ ..]],tblThane[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('21', 'AtlasOF_StaticTempest', 'Thane1-3-4','Thane1-3-4');</v>
       </c>
     </row>
   </sheetData>
@@ -10607,9 +10649,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H35"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10621,20 +10663,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="210.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>32</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -10684,8 +10726,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_AugStr', 'Savage1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_AugStr', 'Savage1-0-1','Savage1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -10699,7 +10741,7 @@
         <v>104</v>
       </c>
       <c r="E5" s="4">
-        <f>IF(G4=9,E4+1,E4)</f>
+        <f t="shared" ref="E5:E13" si="0">IF(G4=9,E4+1,E4)</f>
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -10710,8 +10752,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_MasteryOfArms', 'Savage1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_MasteryOfArms', 'Savage1-0-2','Savage1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -10725,19 +10767,19 @@
         <v>104</v>
       </c>
       <c r="E6" s="4">
-        <f>IF(G5=9,E5+1,E5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" ref="G6:G35" si="0">IF(G5=9,1,G5+1)</f>
+        <f t="shared" ref="G6:G35" si="1">IF(G5=9,1,G5+1)</f>
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_AugDex', 'Savage1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_AugDex', 'Savage1-0-3','Savage1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -10751,19 +10793,19 @@
         <v>104</v>
       </c>
       <c r="E7" s="4">
-        <f>IF(G6=9,E6+1,E6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_MasteryOfPain', 'Savage1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_MasteryOfPain', 'Savage1-0-4','Savage1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -10777,19 +10819,19 @@
         <v>104</v>
       </c>
       <c r="E8" s="4">
-        <f>IF(G7=9,E7+1,E7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_MasteryOfParrying', 'Savage1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_MasteryOfParrying', 'Savage1-0-5','Savage1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -10803,19 +10845,19 @@
         <v>104</v>
       </c>
       <c r="E9" s="4">
-        <f>IF(G8=9,E8+1,E8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_HailOfBlows', 'Savage1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_HailOfBlows', 'Savage1-0-6','Savage1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -10829,19 +10871,19 @@
         <v>104</v>
       </c>
       <c r="E10" s="4">
-        <f>IF(G9=9,E9+1,E9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" ref="G10:G13" si="1">IF(G9=9,1,G9+1)</f>
+        <f t="shared" ref="G10:G13" si="2">IF(G9=9,1,G9+1)</f>
         <v>7</v>
       </c>
       <c r="H10" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_DualistsReflexes', 'Savage1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_DualistsReflexes', 'Savage1-0-7','Savage1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -10855,19 +10897,19 @@
         <v>104</v>
       </c>
       <c r="E11" s="4">
-        <f>IF(G10=9,E10+1,E10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H11" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_WhirlingDervish', 'Savage1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_WhirlingDervish', 'Savage1-0-8','Savage1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -10881,19 +10923,19 @@
         <v>104</v>
       </c>
       <c r="E12" s="4">
-        <f>IF(G11=9,E11+1,E11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H12" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_Bladedance', 'Savage1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_Bladedance', 'Savage1-0-9','Savage1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -10907,19 +10949,19 @@
         <v>104</v>
       </c>
       <c r="E13" s="4">
-        <f>IF(G12=9,E12+1,E12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_AugCon', 'Savage1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_AugCon', 'Savage1-1-1','Savage1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -10933,19 +10975,19 @@
         <v>104</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:E35" si="2">IF(G13=9,E13+1,E13)</f>
+        <f t="shared" ref="E14:E35" si="3">IF(G13=9,E13+1,E13)</f>
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_SecondWind', 'Savage1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_SecondWind', 'Savage1-1-2','Savage1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -10959,19 +11001,19 @@
         <v>104</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_AugQui', 'Savage1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_AugQui', 'Savage1-1-3','Savage1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -10985,19 +11027,19 @@
         <v>104</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_Dodger', 'Savage1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_Dodger', 'Savage1-1-4','Savage1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -11011,19 +11053,19 @@
         <v>104</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_LongWind', 'Savage1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_LongWind', 'Savage1-1-5','Savage1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -11037,19 +11079,19 @@
         <v>104</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_Tireless', 'Savage1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_Tireless', 'Savage1-1-6','Savage1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -11063,19 +11105,19 @@
         <v>104</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_Regeneration', 'Savage1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_Regeneration', 'Savage1-1-7','Savage1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11089,19 +11131,19 @@
         <v>104</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_Toughness', 'Savage1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_Toughness', 'Savage1-1-8','Savage1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -11115,19 +11157,19 @@
         <v>104</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_MasteryOfWater', 'Savage1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_MasteryOfWater', 'Savage1-1-9','Savage1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -11141,19 +11183,19 @@
         <v>104</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_AvoidanceOfMagic', 'Savage1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_AvoidanceOfMagic', 'Savage1-2-1','Savage1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -11167,19 +11209,19 @@
         <v>104</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_Lifter', 'Savage1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_Lifter', 'Savage1-2-2','Savage1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -11193,19 +11235,19 @@
         <v>104</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_VeilRecovery', 'Savage1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_VeilRecovery', 'Savage1-2-3','Savage1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -11219,19 +11261,19 @@
         <v>104</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_Determination', 'Savage1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_Determination', 'Savage1-2-4','Savage1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -11245,19 +11287,19 @@
         <v>104</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_Trip', 'Savage1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_Trip', 'Savage1-2-5','Savage1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -11271,19 +11313,19 @@
         <v>104</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_Grapple', 'Savage1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_Grapple', 'Savage1-2-6','Savage1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -11297,19 +11339,19 @@
         <v>104</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_FirstAid', 'Savage1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_FirstAid', 'Savage1-2-7','Savage1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -11323,19 +11365,19 @@
         <v>104</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_IgnorePain', 'Savage1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_IgnorePain', 'Savage1-2-8','Savage1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -11349,19 +11391,19 @@
         <v>104</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_RainOfFire', 'Savage1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_RainOfFire', 'Savage1-2-9','Savage1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -11375,19 +11417,19 @@
         <v>104</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_RainOfIce', 'Savage1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_RainOfIce', 'Savage1-3-1','Savage1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -11401,19 +11443,19 @@
         <v>104</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_RainOfAnnihilation', 'Savage1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_RainOfAnnihilation', 'Savage1-3-2','Savage1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -11427,19 +11469,19 @@
         <v>104</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_EmptyMind', 'Savage1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_EmptyMind', 'Savage1-3-3','Savage1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -11453,19 +11495,19 @@
         <v>104</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_Purge', 'Savage1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_Purge', 'Savage1-3-4','Savage1-3-4');</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -11479,19 +11521,19 @@
         <v>104</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblReaver[[#This Row],[AbilityKey]],"', '",$D$2,tblReaver[[#This Row],['#]],tblReaver[[#This Row],[ .]],tblReaver[[#This Row],['#'#]],tblReaver[[#This Row],[ ..]],tblReaver[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('32', 'AtlasOF_StyleRavager', 'Savage1-3-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblSavage[[#This Row],[AbilityKey]],"', '",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"','",$D$2,tblSavage[[#This Row],['#]],tblSavage[[#This Row],[ .]],tblSavage[[#This Row],['#'#]],tblSavage[[#This Row],[ ..]],tblSavage[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('32', 'AtlasOF_StyleRavager', 'Savage1-3-5','Savage1-3-5');</v>
       </c>
     </row>
   </sheetData>
@@ -11519,9 +11561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H33"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11533,20 +11575,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="215" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -11596,8 +11638,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_AugStr', 'Healer1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_AugStr', 'Healer1-0-1','Healer1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -11622,8 +11664,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_AugDex', 'Healer1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_AugDex', 'Healer1-0-2','Healer1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -11648,8 +11690,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_MasteryOfBlocking', 'Healer1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_MasteryOfBlocking', 'Healer1-0-3','Healer1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -11674,8 +11716,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_AugCon', 'Healer1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_AugCon', 'Healer1-0-4','Healer1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -11700,8 +11742,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_SecondWind', 'Healer1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_SecondWind', 'Healer1-0-5','Healer1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -11726,8 +11768,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_ArmorOfFaith', 'Healer1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_ArmorOfFaith', 'Healer1-0-6','Healer1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -11752,8 +11794,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_AugQui', 'Healer1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_AugQui', 'Healer1-0-7','Healer1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -11778,8 +11820,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_AugAcuity', 'Healer1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_AugAcuity', 'Healer1-0-8','Healer1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -11804,8 +11846,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_Serenity', 'Healer1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_Serenity', 'Healer1-0-9','Healer1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -11830,8 +11872,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_EtherealBond', 'Healer1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_EtherealBond', 'Healer1-1-1','Healer1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -11856,8 +11898,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_WildArcana', 'Healer1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_WildArcana', 'Healer1-1-2','Healer1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -11882,8 +11924,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_WildHealing', 'Healer1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_WildHealing', 'Healer1-1-3','Healer1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -11908,8 +11950,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_MasteryOfTheArt', 'Healer1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_MasteryOfTheArt', 'Healer1-1-4','Healer1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -11934,8 +11976,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_MasteryOfHealing', 'Healer1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_MasteryOfHealing', 'Healer1-1-5','Healer1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -11960,8 +12002,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_MasteryOfTheArcane', 'Healer1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_MasteryOfTheArcane', 'Healer1-1-6','Healer1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -11986,8 +12028,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_MasteryOfConcentration', 'Healer1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_MasteryOfConcentration', 'Healer1-1-7','Healer1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -12012,8 +12054,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_LongWind', 'Healer1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_LongWind', 'Healer1-1-8','Healer1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -12038,8 +12080,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_Tireless', 'Healer1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_Tireless', 'Healer1-1-9','Healer1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -12064,8 +12106,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_Regeneration', 'Healer1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_Regeneration', 'Healer1-2-1','Healer1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -12090,8 +12132,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_Toughness', 'Healer1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_Toughness', 'Healer1-2-2','Healer1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -12116,8 +12158,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_MasteryOfWater', 'Healer1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_MasteryOfWater', 'Healer1-2-3','Healer1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -12142,8 +12184,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_AvoidanceOfMagic', 'Healer1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_AvoidanceOfMagic', 'Healer1-2-4','Healer1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -12168,8 +12210,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_Lifter', 'Healer1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_Lifter', 'Healer1-2-5','Healer1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -12194,8 +12236,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_VeilRecovery', 'Healer1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_VeilRecovery', 'Healer1-2-6','Healer1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -12220,8 +12262,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_EmptyMind', 'Healer1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_EmptyMind', 'Healer1-2-7','Healer1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -12246,8 +12288,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_MCL', 'Healer1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_MCL', 'Healer1-2-8','Healer1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -12272,8 +12314,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_RagingPower', 'Healer1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_RagingPower', 'Healer1-2-9','Healer1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -12298,8 +12340,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_Purge', 'Healer1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_Purge', 'Healer1-3-1','Healer1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -12324,8 +12366,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_PerfectRecovery', 'Healer1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_PerfectRecovery', 'Healer1-3-2','Healer1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -12350,8 +12392,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblCleric[[#This Row],[AbilityKey]],"', '",$D$2,tblCleric[[#This Row],['#]],tblCleric[[#This Row],[ .]],tblCleric[[#This Row],['#'#]],tblCleric[[#This Row],[ ..]],tblCleric[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('26', 'AtlasOF_BatteryOfLife', 'Healer1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHealer[[#This Row],[AbilityKey]],"', '",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"','",$D$2,tblHealer[[#This Row],['#]],tblHealer[[#This Row],[ .]],tblHealer[[#This Row],['#'#]],tblHealer[[#This Row],[ ..]],tblHealer[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('26', 'AtlasOF_BatteryOfLife', 'Healer1-3-3','Healer1-3-3');</v>
       </c>
     </row>
   </sheetData>
@@ -12379,9 +12421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H34"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12393,20 +12435,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="206.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -12456,8 +12498,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_AugStr', 'Shaman1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_AugStr', 'Shaman1-0-1','Shaman1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -12482,8 +12524,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_AugDex', 'Shaman1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_AugDex', 'Shaman1-0-2','Shaman1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -12508,8 +12550,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_MasteryOfBlocking', 'Shaman1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_MasteryOfBlocking', 'Shaman1-0-3','Shaman1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -12534,8 +12576,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_AugCon', 'Shaman1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_AugCon', 'Shaman1-0-4','Shaman1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -12560,8 +12602,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_SecondWind', 'Shaman1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_SecondWind', 'Shaman1-0-5','Shaman1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -12586,8 +12628,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_ArmorOfFaith', 'Shaman1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_ArmorOfFaith', 'Shaman1-0-6','Shaman1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -12612,8 +12654,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_AugQui', 'Shaman1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_AugQui', 'Shaman1-0-7','Shaman1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -12638,8 +12680,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_AugAcuity', 'Shaman1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_AugAcuity', 'Shaman1-0-8','Shaman1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -12664,8 +12706,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_Serenity', 'Shaman1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_Serenity', 'Shaman1-0-9','Shaman1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -12690,8 +12732,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_EtherealBond', 'Shaman1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_EtherealBond', 'Shaman1-1-1','Shaman1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -12716,8 +12758,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_WildArcana', 'Shaman1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_WildArcana', 'Shaman1-1-2','Shaman1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -12742,8 +12784,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_WildHealing', 'Shaman1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_WildHealing', 'Shaman1-1-3','Shaman1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -12768,8 +12810,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_MasteryOfTheArt', 'Shaman1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_MasteryOfTheArt', 'Shaman1-1-4','Shaman1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -12794,8 +12836,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_MasteryOfHealing', 'Shaman1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_MasteryOfHealing', 'Shaman1-1-5','Shaman1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -12820,8 +12862,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_MasteryOfTheArcane', 'Shaman1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_MasteryOfTheArcane', 'Shaman1-1-6','Shaman1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -12846,8 +12888,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_MasteryOfConcentration', 'Shaman1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_MasteryOfConcentration', 'Shaman1-1-7','Shaman1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -12872,8 +12914,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_LongWind', 'Shaman1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_LongWind', 'Shaman1-1-8','Shaman1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -12898,8 +12940,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_Tireless', 'Shaman1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_Tireless', 'Shaman1-1-9','Shaman1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -12924,8 +12966,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_Regeneration', 'Shaman1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_Regeneration', 'Shaman1-2-1','Shaman1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -12950,8 +12992,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_Toughness', 'Shaman1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_Toughness', 'Shaman1-2-2','Shaman1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -12976,8 +13018,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_MasteryOfWater', 'Shaman1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_MasteryOfWater', 'Shaman1-2-3','Shaman1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -13002,8 +13044,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_AvoidanceOfMagic', 'Shaman1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_AvoidanceOfMagic', 'Shaman1-2-4','Shaman1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -13028,8 +13070,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_Lifter', 'Shaman1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_Lifter', 'Shaman1-2-5','Shaman1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -13054,8 +13096,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_VeilRecovery', 'Shaman1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_VeilRecovery', 'Shaman1-2-6','Shaman1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -13080,8 +13122,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_FirstAid', 'Shaman1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_FirstAid', 'Shaman1-2-7','Shaman1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -13106,8 +13148,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_IgnorePain', 'Shaman1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_IgnorePain', 'Shaman1-2-8','Shaman1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -13132,8 +13174,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_EmptyMind', 'Shaman1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_EmptyMind', 'Shaman1-2-9','Shaman1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -13158,8 +13200,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_MCL', 'Shaman1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_MCL', 'Shaman1-3-1','Shaman1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -13184,8 +13226,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_RagingPower', 'Shaman1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_RagingPower', 'Shaman1-3-2','Shaman1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -13210,8 +13252,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_Purge', 'Shaman1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_Purge', 'Shaman1-3-3','Shaman1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -13236,8 +13278,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblFriar[[#This Row],[AbilityKey]],"', '",$D$2,tblFriar[[#This Row],['#]],tblFriar[[#This Row],[ .]],tblFriar[[#This Row],['#'#]],tblFriar[[#This Row],[ ..]],tblFriar[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('28', 'AtlasOF_Ichor', 'Shaman1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblShaman[[#This Row],[AbilityKey]],"', '",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"','",$D$2,tblShaman[[#This Row],['#]],tblShaman[[#This Row],[ .]],tblShaman[[#This Row],['#'#]],tblShaman[[#This Row],[ ..]],tblShaman[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('28', 'AtlasOF_Ichor', 'Shaman1-3-4','Shaman1-3-4');</v>
       </c>
     </row>
   </sheetData>
@@ -13265,9 +13307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H34"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13279,20 +13321,20 @@
     <col min="5" max="5" width="4.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="169.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="202.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -13342,8 +13384,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_AugStr', 'Hunter1-0-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_AugStr', 'Hunter1-0-1','Hunter1-0-1');</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -13368,8 +13410,8 @@
         <v>2</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_MasteryOfArms', 'Hunter1-0-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_MasteryOfArms', 'Hunter1-0-2','Hunter1-0-2');</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -13394,8 +13436,8 @@
         <v>3</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_AugDex', 'Hunter1-0-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_AugDex', 'Hunter1-0-3','Hunter1-0-3');</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -13420,8 +13462,8 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_MasteryOfPain', 'Hunter1-0-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_MasteryOfPain', 'Hunter1-0-4','Hunter1-0-4');</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -13446,8 +13488,8 @@
         <v>5</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_HailOfBlows', 'Hunter1-0-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_HailOfBlows', 'Hunter1-0-5','Hunter1-0-5');</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -13472,8 +13514,8 @@
         <v>6</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_MasteryOfArchery', 'Hunter1-0-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_MasteryOfArchery', 'Hunter1-0-6','Hunter1-0-6');</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -13498,8 +13540,8 @@
         <v>7</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_FalconsEye', 'Hunter1-0-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_FalconsEye', 'Hunter1-0-7','Hunter1-0-7');</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -13524,8 +13566,8 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_AugCon', 'Hunter1-0-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_AugCon', 'Hunter1-0-8','Hunter1-0-8');</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -13550,8 +13592,8 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_AvoidPain', 'Hunter1-0-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_AvoidPain', 'Hunter1-0-9','Hunter1-0-9');</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -13576,8 +13618,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_SecondWind', 'Hunter1-1-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_SecondWind', 'Hunter1-1-1','Hunter1-1-1');</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -13602,8 +13644,8 @@
         <v>2</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_AugQui', 'Hunter1-1-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_AugQui', 'Hunter1-1-2','Hunter1-1-2');</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -13628,8 +13670,8 @@
         <v>3</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_Dodger', 'Hunter1-1-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_Dodger', 'Hunter1-1-3','Hunter1-1-3');</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -13654,8 +13696,8 @@
         <v>4</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_AugAcuity', 'Hunter1-1-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_AugAcuity', 'Hunter1-1-4','Hunter1-1-4');</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -13680,8 +13722,8 @@
         <v>5</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_WildMinion', 'Hunter1-1-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_WildMinion', 'Hunter1-1-5','Hunter1-1-5');</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -13706,8 +13748,8 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_MasteryOfTheArcane', 'Hunter1-1-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_MasteryOfTheArcane', 'Hunter1-1-6','Hunter1-1-6');</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -13732,8 +13774,8 @@
         <v>7</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_LongWind', 'Hunter1-1-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_LongWind', 'Hunter1-1-7','Hunter1-1-7');</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -13758,8 +13800,8 @@
         <v>8</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_Tireless', 'Hunter1-1-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_Tireless', 'Hunter1-1-8','Hunter1-1-8');</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -13784,8 +13826,8 @@
         <v>9</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_Regeneration', 'Hunter1-1-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_Regeneration', 'Hunter1-1-9','Hunter1-1-9');</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -13810,8 +13852,8 @@
         <v>1</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_Toughness', 'Hunter1-2-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_Toughness', 'Hunter1-2-1','Hunter1-2-1');</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -13836,8 +13878,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_MasteryOfWater', 'Hunter1-2-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_MasteryOfWater', 'Hunter1-2-2','Hunter1-2-2');</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -13862,8 +13904,8 @@
         <v>3</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_AvoidanceOfMagic', 'Hunter1-2-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_AvoidanceOfMagic', 'Hunter1-2-3','Hunter1-2-3');</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -13888,8 +13930,8 @@
         <v>4</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_Lifter', 'Hunter1-2-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_Lifter', 'Hunter1-2-4','Hunter1-2-4');</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -13914,8 +13956,8 @@
         <v>5</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_VeilRecovery', 'Hunter1-2-5');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_VeilRecovery', 'Hunter1-2-5','Hunter1-2-5');</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -13940,8 +13982,8 @@
         <v>6</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_ArrowSalvaging', 'Hunter1-2-6');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_ArrowSalvaging', 'Hunter1-2-6','Hunter1-2-6');</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -13966,8 +14008,8 @@
         <v>7</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_FirstAid', 'Hunter1-2-7');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_FirstAid', 'Hunter1-2-7','Hunter1-2-7');</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -13992,8 +14034,8 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_IgnorePain', 'Hunter1-2-8');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_IgnorePain', 'Hunter1-2-8','Hunter1-2-8');</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -14018,8 +14060,8 @@
         <v>9</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_Longshot', 'Hunter1-2-9');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_Longshot', 'Hunter1-2-9','Hunter1-2-9');</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -14044,8 +14086,8 @@
         <v>1</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_Volley', 'Hunter1-3-1');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_Volley', 'Hunter1-3-1','Hunter1-3-1');</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -14070,8 +14112,8 @@
         <v>2</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_EmptyMind', 'Hunter1-3-2');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_EmptyMind', 'Hunter1-3-2','Hunter1-3-2');</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -14096,8 +14138,8 @@
         <v>3</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_Purge', 'Hunter1-3-3');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_Purge', 'Hunter1-3-3','Hunter1-3-3');</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -14122,8 +14164,8 @@
         <v>4</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('",$C$2,"', '",tblScout[[#This Row],[AbilityKey]],"', '",$D$2,tblScout[[#This Row],['#]],tblScout[[#This Row],[ .]],tblScout[[#This Row],['#'#]],tblScout[[#This Row],[ ..]],tblScout[[#This Row],['#'#'#]],"');")</f>
-        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`) VALUES ('25', 'AtlasOF_TrueSight', 'Hunter1-3-4');</v>
+        <f>CONCATENATE("INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('",$C$2,"', '",tblHunter[[#This Row],[AbilityKey]],"', '",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"','",$D$2,tblHunter[[#This Row],['#]],tblHunter[[#This Row],[ .]],tblHunter[[#This Row],['#'#]],tblHunter[[#This Row],[ ..]],tblHunter[[#This Row],['#'#'#]],"');")</f>
+        <v>INSERT INTO `atlas`.`classxrealmability_atlas` (`CharClass`, `AbilityKey`, `ClassXRealmAbility_ID`,`ClassXRealmAbility_Atlas_ID`) VALUES ('25', 'AtlasOF_TrueSight', 'Hunter1-3-4','Hunter1-3-4');</v>
       </c>
     </row>
   </sheetData>
